--- a/htdocs/App/Controllers/Traspasos/8725BKB.xlsx
+++ b/htdocs/App/Controllers/Traspasos/8725BKB.xlsx
@@ -31,7 +31,7 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>14-12-2017</t>
+    <t>20-12-2017</t>
   </si>
   <si>
     <t>Atendido por:</t>
@@ -49,7 +49,7 @@
     <t>Cobrado el</t>
   </si>
   <si>
-    <t>2017-12-14</t>
+    <t>2017-12-20</t>
   </si>
   <si>
     <t>x</t>
@@ -64,7 +64,7 @@
     <t>Vendedor:</t>
   </si>
   <si>
-    <t>CARMEN MARIA</t>
+    <t>SARA REYES</t>
   </si>
   <si>
     <t>Impresos/Fotocopias…………………….</t>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="56">
-        <v>616949391</v>
+        <v>1552</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
